--- a/source-master-v2.xlsx
+++ b/source-master-v2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohan\Documents\DigitalDi\Python Shiv\mohan_script\mohan_script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D9D225-616C-4064-96AF-0D4D5E74D682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55577234-A741-442D-9E2E-997441C372FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D32566AC-B4DA-41DD-9D43-E8DE8046892B}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2421" uniqueCount="835">
   <si>
     <t>Subject</t>
   </si>
@@ -4604,9 +4604,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4644,7 +4644,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4750,7 +4750,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4892,7 +4892,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4902,8 +4902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051B4B0B-A9E8-4734-82AB-B1D62151FB8E}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4996,6 +4996,9 @@
       </c>
       <c r="L2" t="s">
         <v>824</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">

--- a/source-master-v2.xlsx
+++ b/source-master-v2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohan\Documents\DigitalDi\Python Shiv\mohan_script\mohan_script\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trish\Downloads\csv-field-validator-main\csv-field-validator-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55577234-A741-442D-9E2E-997441C372FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0113AE-EA1F-4B45-AF84-5BAFC2CF931F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D32566AC-B4DA-41DD-9D43-E8DE8046892B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="5" xr2:uid="{D32566AC-B4DA-41DD-9D43-E8DE8046892B}"/>
   </bookViews>
   <sheets>
     <sheet name="Reports" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2421" uniqueCount="835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2430" uniqueCount="817">
   <si>
     <t>Subject</t>
   </si>
@@ -2310,111 +2310,6 @@
     <t>sales_fcst_each_qty</t>
   </si>
   <si>
-    <t>vw_chnl_perf_basic_store_mdlr_all_dly_walmart_item_number</t>
-  </si>
-  <si>
-    <t>vw_chnl_perf_basic_store_mdlr_all_dly_discontinue_date</t>
-  </si>
-  <si>
-    <t>vw_chnl_perf_basic_store_mdlr_all_dly_effective_date</t>
-  </si>
-  <si>
-    <t>vw_chnl_perf_basic_store_mdlr_all_dly_modular_category_description</t>
-  </si>
-  <si>
-    <t>vw_chnl_perf_basic_store_mdlr_all_dly_modular_category_number</t>
-  </si>
-  <si>
-    <t>vw_chnl_perf_basic_store_mdlr_all_dly_modular_department_description</t>
-  </si>
-  <si>
-    <t>vw_chnl_perf_basic_store_mdlr_all_dly_modular_department_number</t>
-  </si>
-  <si>
-    <t>vw_chnl_perf_basic_store_mdlr_all_dly_modular_plan_identifier</t>
-  </si>
-  <si>
-    <t>vw_chnl_perf_basic_store_mdlr_all_dly_modular_plan_title_description</t>
-  </si>
-  <si>
-    <t>vw_chnl_perf_basic_store_mdlr_all_dly_modular_section_number</t>
-  </si>
-  <si>
-    <t>vw_chnl_perf_basic_store_mdlr_all_dly_product_position_number</t>
-  </si>
-  <si>
-    <t>vw_chnl_perf_basic_store_mdlr_all_dly_store_aisle_identifier</t>
-  </si>
-  <si>
-    <t>vw_chnl_perf_basic_store_mdlr_all_dly_store_section_identifier</t>
-  </si>
-  <si>
-    <t>vw_chnl_perf_basic_store_mdlr_all_dly_store_zone_identifier</t>
-  </si>
-  <si>
-    <t>vw_chnl_perf_basic_store_mdlr_all_dly_universal_product_code_number</t>
-  </si>
-  <si>
-    <t>vw_chnl_perf_basic_store_mdlr_all_dly_vendor_case_pack_code</t>
-  </si>
-  <si>
-    <t>vw_chnl_perf_basic_store_mdlr_all_dly_vendor_case_pack_description</t>
-  </si>
-  <si>
-    <t>vw_chnl_perf_basic_store_mdlr_all_dly_vendor_pack_height_quantity</t>
-  </si>
-  <si>
-    <t>vw_chnl_perf_basic_store_mdlr_all_dly_vendor_pack_length_quantity</t>
-  </si>
-  <si>
-    <t>vw_chnl_perf_basic_store_mdlr_all_dly_vendor_pack_quantity</t>
-  </si>
-  <si>
-    <t>vw_chnl_perf_basic_store_mdlr_all_dly_vendor_pack_weight_quantity</t>
-  </si>
-  <si>
-    <t>vw_chnl_perf_basic_store_mdlr_all_dly_vendor_pack_width_quantity</t>
-  </si>
-  <si>
-    <t>vw_chnl_perf_basic_store_mdlr_all_dly_warehouse_pack_cubic_quantity</t>
-  </si>
-  <si>
-    <t>vw_chnl_perf_basic_store_mdlr_all_dly_warehouse_pack_cube_uom_description</t>
-  </si>
-  <si>
-    <t>vw_chnl_perf_basic_store_mdlr_all_dly_warehouse_pack_each_quantity</t>
-  </si>
-  <si>
-    <t>vw_chnl_perf_basic_store_mdlr_all_dly_warehouse_pack_height_quantity</t>
-  </si>
-  <si>
-    <t>vw_chnl_perf_basic_store_mdlr_all_dly_warehouse_pack_length_quantity</t>
-  </si>
-  <si>
-    <t>vw_chnl_perf_basic_store_mdlr_all_dly_warehouse_pack_upc_format_code</t>
-  </si>
-  <si>
-    <t>vw_chnl_perf_basic_store_mdlr_all_dly_warehouse_pack_upc_format_description</t>
-  </si>
-  <si>
-    <t>vw_chnl_perf_basic_store_mdlr_all_dly_warehouse_pack_weight_quantity</t>
-  </si>
-  <si>
-    <t>vw_chnl_perf_basic_store_mdlr_all_dly_warehouse_pack_weight_uom_code</t>
-  </si>
-  <si>
-    <t>vw_chnl_perf_basic_store_mdlr_all_dly_warehouse_pack_weight_uom_description</t>
-  </si>
-  <si>
-    <t>vw_chnl_perf_basic_store_mdlr_all_dly_warehouse_pack_width_quantity</t>
-  </si>
-  <si>
-    <t>vw_chnl_perf_basic_store_mdlr_all_dly_store_number</t>
-  </si>
-  <si>
-    <t>vw_chnl_perf_basic_store_mdlr_all_dly_shelf_capacity_quantity</t>
-  </si>
-  <si>
     <t>ecomm_prod_id</t>
   </si>
   <si>
@@ -2514,9 +2409,6 @@
     <t>on_hand_unit_quantity</t>
   </si>
   <si>
-    <t>Audit</t>
-  </si>
-  <si>
     <t>New Filter</t>
   </si>
   <si>
@@ -2563,6 +2455,60 @@
   </si>
   <si>
     <t>Store Sales &amp; Inventory (Weekl)</t>
+  </si>
+  <si>
+    <t>^LUMUS_BASIC_AUDIT_[0-9]+.*$</t>
+  </si>
+  <si>
+    <t>Store Sales &amp; Inventory (AUDIT)</t>
+  </si>
+  <si>
+    <t>discontinue_date</t>
+  </si>
+  <si>
+    <t>effective_date</t>
+  </si>
+  <si>
+    <t>modular_category_description</t>
+  </si>
+  <si>
+    <t>modular_category_number</t>
+  </si>
+  <si>
+    <t>modular_department_description</t>
+  </si>
+  <si>
+    <t>modular_department_number</t>
+  </si>
+  <si>
+    <t>modular_plan_identifier</t>
+  </si>
+  <si>
+    <t>modular_plan_title_description</t>
+  </si>
+  <si>
+    <t>modular_section_number</t>
+  </si>
+  <si>
+    <t>product_position_number</t>
+  </si>
+  <si>
+    <t>store_aisle_identifier</t>
+  </si>
+  <si>
+    <t>store_section_identifier</t>
+  </si>
+  <si>
+    <t>store_zone_identifier</t>
+  </si>
+  <si>
+    <t>universal_product_code_number</t>
+  </si>
+  <si>
+    <t>shelf_capacity_quantity</t>
+  </si>
+  <si>
+    <t>warehouse_pack_each_quantity</t>
   </si>
 </sst>
 </file>
@@ -4387,7 +4333,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DA8431D4-DB7D-4DB4-A8C2-F7DADFC61183}" name="Table1" displayName="Table1" ref="A1:M12" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DA8431D4-DB7D-4DB4-A8C2-F7DADFC61183}" name="Table1" displayName="Table1" ref="A1:M13" totalsRowShown="0">
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{BDDB1147-4A3D-427C-A47A-C7D9DFD991CF}" name="Subject"/>
     <tableColumn id="8" xr3:uid="{2705C772-F241-4C07-93EB-4FBA9EE6924B}" name="Report Definition"/>
@@ -4604,9 +4550,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4644,7 +4590,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4750,7 +4696,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4892,7 +4838,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4902,8 +4848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051B4B0B-A9E8-4734-82AB-B1D62151FB8E}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4957,10 +4903,10 @@
         <v>8</v>
       </c>
       <c r="L1" t="s">
-        <v>822</v>
+        <v>786</v>
       </c>
       <c r="M1" t="s">
-        <v>823</v>
+        <v>787</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -4968,7 +4914,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>834</v>
+        <v>798</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -4995,10 +4941,10 @@
         <v>425</v>
       </c>
       <c r="L2" t="s">
-        <v>824</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>474</v>
+        <v>788</v>
+      </c>
+      <c r="M2" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -5033,10 +4979,10 @@
         <v>426</v>
       </c>
       <c r="L3" t="s">
-        <v>825</v>
+        <v>789</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
@@ -5071,7 +5017,10 @@
         <v>427</v>
       </c>
       <c r="L4" t="s">
-        <v>826</v>
+        <v>790</v>
+      </c>
+      <c r="M4" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
@@ -5106,7 +5055,10 @@
         <v>428</v>
       </c>
       <c r="L5" t="s">
-        <v>827</v>
+        <v>791</v>
+      </c>
+      <c r="M5" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
@@ -5144,7 +5096,7 @@
         <v>32</v>
       </c>
       <c r="L6" t="s">
-        <v>828</v>
+        <v>792</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
@@ -5179,7 +5131,10 @@
         <v>430</v>
       </c>
       <c r="L7" t="s">
-        <v>829</v>
+        <v>793</v>
+      </c>
+      <c r="M7" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
@@ -5211,7 +5166,10 @@
         <v>422</v>
       </c>
       <c r="L8" t="s">
-        <v>830</v>
+        <v>794</v>
+      </c>
+      <c r="M8" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
@@ -5249,7 +5207,10 @@
         <v>44</v>
       </c>
       <c r="L9" t="s">
-        <v>831</v>
+        <v>795</v>
+      </c>
+      <c r="M9" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
@@ -5287,7 +5248,10 @@
         <v>44</v>
       </c>
       <c r="L10" t="s">
-        <v>832</v>
+        <v>796</v>
+      </c>
+      <c r="M10" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
@@ -5325,7 +5289,10 @@
         <v>44</v>
       </c>
       <c r="L11" t="s">
-        <v>833</v>
+        <v>797</v>
+      </c>
+      <c r="M11" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
@@ -5333,7 +5300,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>818</v>
+        <v>800</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>10</v>
@@ -5353,6 +5320,12 @@
       <c r="H12" s="17"/>
       <c r="J12" t="s">
         <v>446</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>799</v>
+      </c>
+      <c r="M12" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="21" x14ac:dyDescent="0.5">
@@ -5398,7 +5371,7 @@
   <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5467,7 +5440,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>819</v>
+        <v>783</v>
       </c>
       <c r="B4" s="36" t="s">
         <v>73</v>
@@ -5481,7 +5454,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>819</v>
+        <v>783</v>
       </c>
       <c r="B5" s="36" t="s">
         <v>73</v>
@@ -5495,7 +5468,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>819</v>
+        <v>783</v>
       </c>
       <c r="B6" s="36" t="s">
         <v>413</v>
@@ -5509,7 +5482,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>819</v>
+        <v>783</v>
       </c>
       <c r="B7" s="36" t="s">
         <v>413</v>
@@ -6320,7 +6293,7 @@
   <dimension ref="A1:G236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="51.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9670,7 +9643,7 @@
   <dimension ref="A1:G236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="51.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13021,7 +12994,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13199,7 +13172,7 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="46.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13243,7 +13216,7 @@
         <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>795</v>
+        <v>760</v>
       </c>
       <c r="F2" t="s">
         <v>58</v>
@@ -13263,7 +13236,7 @@
         <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>816</v>
+        <v>781</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -13277,7 +13250,7 @@
         <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>817</v>
+        <v>782</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -13319,7 +13292,7 @@
         <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>796</v>
+        <v>761</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -13347,7 +13320,7 @@
         <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>797</v>
+        <v>762</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -13361,7 +13334,7 @@
         <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>798</v>
+        <v>763</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -13417,7 +13390,7 @@
         <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>799</v>
+        <v>764</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -13431,7 +13404,7 @@
         <v>75</v>
       </c>
       <c r="D15" t="s">
-        <v>800</v>
+        <v>765</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -13445,7 +13418,7 @@
         <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>801</v>
+        <v>766</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -13459,7 +13432,7 @@
         <v>77</v>
       </c>
       <c r="D17" t="s">
-        <v>802</v>
+        <v>767</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -13473,7 +13446,7 @@
         <v>78</v>
       </c>
       <c r="D18" t="s">
-        <v>803</v>
+        <v>768</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -13515,7 +13488,7 @@
         <v>81</v>
       </c>
       <c r="D21" t="s">
-        <v>804</v>
+        <v>769</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -13543,7 +13516,7 @@
         <v>83</v>
       </c>
       <c r="D23" t="s">
-        <v>805</v>
+        <v>770</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -13557,7 +13530,7 @@
         <v>84</v>
       </c>
       <c r="D24" t="s">
-        <v>806</v>
+        <v>771</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -13585,7 +13558,7 @@
         <v>86</v>
       </c>
       <c r="D26" t="s">
-        <v>807</v>
+        <v>772</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -13599,7 +13572,7 @@
         <v>87</v>
       </c>
       <c r="D27" t="s">
-        <v>808</v>
+        <v>773</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -13613,7 +13586,7 @@
         <v>88</v>
       </c>
       <c r="D28" t="s">
-        <v>810</v>
+        <v>775</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -13627,7 +13600,7 @@
         <v>89</v>
       </c>
       <c r="D29" t="s">
-        <v>809</v>
+        <v>774</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -13781,7 +13754,7 @@
         <v>100</v>
       </c>
       <c r="D40" t="s">
-        <v>811</v>
+        <v>776</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
@@ -13795,7 +13768,7 @@
         <v>101</v>
       </c>
       <c r="D41" t="s">
-        <v>812</v>
+        <v>777</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
@@ -13809,7 +13782,7 @@
         <v>102</v>
       </c>
       <c r="D42" t="s">
-        <v>813</v>
+        <v>778</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
@@ -13823,7 +13796,7 @@
         <v>103</v>
       </c>
       <c r="D43" t="s">
-        <v>786</v>
+        <v>751</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
@@ -13837,7 +13810,7 @@
         <v>104</v>
       </c>
       <c r="D44" t="s">
-        <v>814</v>
+        <v>779</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
@@ -13851,15 +13824,15 @@
         <v>105</v>
       </c>
       <c r="D45" t="s">
-        <v>815</v>
+        <v>780</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D46" s="37" t="s">
-        <v>786</v>
+        <v>751</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>820</v>
+        <v>784</v>
       </c>
     </row>
   </sheetData>
@@ -13876,7 +13849,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14210,7 +14183,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="68.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14274,7 +14247,7 @@
         <v>127</v>
       </c>
       <c r="D3" t="s">
-        <v>785</v>
+        <v>750</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -14288,13 +14261,13 @@
         <v>128</v>
       </c>
       <c r="D4" t="s">
-        <v>794</v>
+        <v>759</v>
       </c>
       <c r="F4" t="s">
-        <v>786</v>
+        <v>751</v>
       </c>
       <c r="G4" t="s">
-        <v>821</v>
+        <v>785</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -14308,7 +14281,7 @@
         <v>129</v>
       </c>
       <c r="D5" t="s">
-        <v>787</v>
+        <v>752</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -14322,7 +14295,7 @@
         <v>130</v>
       </c>
       <c r="D6" t="s">
-        <v>788</v>
+        <v>753</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -14336,7 +14309,7 @@
         <v>131</v>
       </c>
       <c r="D7" t="s">
-        <v>789</v>
+        <v>754</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -14350,7 +14323,7 @@
         <v>132</v>
       </c>
       <c r="D8" t="s">
-        <v>791</v>
+        <v>756</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -14364,7 +14337,7 @@
         <v>133</v>
       </c>
       <c r="D9" t="s">
-        <v>790</v>
+        <v>755</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -14378,7 +14351,7 @@
         <v>134</v>
       </c>
       <c r="D10" t="s">
-        <v>792</v>
+        <v>757</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -14392,7 +14365,7 @@
         <v>135</v>
       </c>
       <c r="D11" t="s">
-        <v>793</v>
+        <v>758</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -14417,8 +14390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BA71F45-63C5-45EE-B626-DB8228DCEC1D}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14457,7 +14430,7 @@
         <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>750</v>
+        <v>453</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -14471,7 +14444,7 @@
         <v>138</v>
       </c>
       <c r="D3" t="s">
-        <v>751</v>
+        <v>801</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -14485,7 +14458,7 @@
         <v>139</v>
       </c>
       <c r="D4" t="s">
-        <v>752</v>
+        <v>802</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -14499,7 +14472,7 @@
         <v>140</v>
       </c>
       <c r="D5" t="s">
-        <v>753</v>
+        <v>803</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -14513,7 +14486,7 @@
         <v>141</v>
       </c>
       <c r="D6" t="s">
-        <v>754</v>
+        <v>804</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -14527,7 +14500,7 @@
         <v>142</v>
       </c>
       <c r="D7" t="s">
-        <v>755</v>
+        <v>805</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -14541,7 +14514,7 @@
         <v>143</v>
       </c>
       <c r="D8" t="s">
-        <v>756</v>
+        <v>806</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -14555,7 +14528,7 @@
         <v>144</v>
       </c>
       <c r="D9" t="s">
-        <v>757</v>
+        <v>807</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -14569,7 +14542,7 @@
         <v>145</v>
       </c>
       <c r="D10" t="s">
-        <v>758</v>
+        <v>808</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -14583,7 +14556,7 @@
         <v>146</v>
       </c>
       <c r="D11" t="s">
-        <v>759</v>
+        <v>809</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -14597,7 +14570,7 @@
         <v>147</v>
       </c>
       <c r="D12" t="s">
-        <v>760</v>
+        <v>810</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -14611,7 +14584,7 @@
         <v>148</v>
       </c>
       <c r="D13" t="s">
-        <v>761</v>
+        <v>811</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -14625,7 +14598,7 @@
         <v>149</v>
       </c>
       <c r="D14" t="s">
-        <v>762</v>
+        <v>812</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -14639,7 +14612,7 @@
         <v>150</v>
       </c>
       <c r="D15" t="s">
-        <v>763</v>
+        <v>813</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -14653,7 +14626,7 @@
         <v>151</v>
       </c>
       <c r="D16" t="s">
-        <v>764</v>
+        <v>814</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -14667,7 +14640,7 @@
         <v>152</v>
       </c>
       <c r="D17" t="s">
-        <v>784</v>
+        <v>815</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -14681,7 +14654,7 @@
         <v>154</v>
       </c>
       <c r="D18" t="s">
-        <v>765</v>
+        <v>577</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -14695,7 +14668,7 @@
         <v>155</v>
       </c>
       <c r="D19" t="s">
-        <v>766</v>
+        <v>578</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -14709,7 +14682,7 @@
         <v>156</v>
       </c>
       <c r="D20" t="s">
-        <v>767</v>
+        <v>579</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -14723,7 +14696,7 @@
         <v>157</v>
       </c>
       <c r="D21" t="s">
-        <v>768</v>
+        <v>580</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -14737,7 +14710,7 @@
         <v>158</v>
       </c>
       <c r="D22" t="s">
-        <v>769</v>
+        <v>581</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -14751,7 +14724,7 @@
         <v>159</v>
       </c>
       <c r="D23" t="s">
-        <v>770</v>
+        <v>582</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -14765,7 +14738,7 @@
         <v>160</v>
       </c>
       <c r="D24" t="s">
-        <v>771</v>
+        <v>583</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -14779,7 +14752,7 @@
         <v>161</v>
       </c>
       <c r="D25" t="s">
-        <v>773</v>
+        <v>585</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -14793,7 +14766,7 @@
         <v>162</v>
       </c>
       <c r="D26" t="s">
-        <v>772</v>
+        <v>586</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -14807,7 +14780,7 @@
         <v>163</v>
       </c>
       <c r="D27" t="s">
-        <v>774</v>
+        <v>816</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -14821,7 +14794,7 @@
         <v>164</v>
       </c>
       <c r="D28" t="s">
-        <v>775</v>
+        <v>588</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -14835,7 +14808,7 @@
         <v>165</v>
       </c>
       <c r="D29" t="s">
-        <v>776</v>
+        <v>589</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -14849,7 +14822,7 @@
         <v>166</v>
       </c>
       <c r="D30" t="s">
-        <v>777</v>
+        <v>590</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -14863,7 +14836,7 @@
         <v>167</v>
       </c>
       <c r="D31" t="s">
-        <v>778</v>
+        <v>591</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -14877,7 +14850,7 @@
         <v>168</v>
       </c>
       <c r="D32" t="s">
-        <v>779</v>
+        <v>593</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -14891,7 +14864,7 @@
         <v>169</v>
       </c>
       <c r="D33" t="s">
-        <v>780</v>
+        <v>592</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -14905,7 +14878,7 @@
         <v>170</v>
       </c>
       <c r="D34" t="s">
-        <v>781</v>
+        <v>594</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -14919,7 +14892,7 @@
         <v>171</v>
       </c>
       <c r="D35" t="s">
-        <v>782</v>
+        <v>595</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -14933,7 +14906,7 @@
         <v>108</v>
       </c>
       <c r="D36" t="s">
-        <v>783</v>
+        <v>454</v>
       </c>
     </row>
   </sheetData>
@@ -14949,7 +14922,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15086,7 +15059,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15260,8 +15233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6FD8A69-4012-4FA7-8B42-65429281F4AF}">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView topLeftCell="C46" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15330,7 +15303,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>819</v>
+        <v>783</v>
       </c>
       <c r="B4" s="36" t="s">
         <v>73</v>
@@ -15344,7 +15317,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>819</v>
+        <v>783</v>
       </c>
       <c r="B5" s="36" t="s">
         <v>73</v>
@@ -15358,7 +15331,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>819</v>
+        <v>783</v>
       </c>
       <c r="B6" s="36" t="s">
         <v>413</v>
@@ -15372,7 +15345,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>819</v>
+        <v>783</v>
       </c>
       <c r="B7" s="36" t="s">
         <v>413</v>
